--- a/TCS_LDAS0301_Valid／オーダー登録日付チェック.xlsx
+++ b/TCS_LDAS0301_Valid／オーダー登録日付チェック.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FBEDFD-8C0B-4962-8C4F-15A47DC9EEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7F1BF0-2F60-403E-8611-28BFD85DD686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8439" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8439" uniqueCount="785">
   <si>
     <t>確認者</t>
     <rPh sb="0" eb="2">
@@ -3811,10 +3811,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>初期作成</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>払出日入力チェック、稼働日チェックを行う、着手日入力チェック、稼働日チェック、期間チェックを行う</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -3864,6 +3860,13 @@
   <si>
     <t>&lt;&lt;SP:LEBS0010 Error Return&gt;&gt; Return:  -2, ,le.E.LEP10055,Target Fix Period ID does not exist in the Fix Period Master.</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>余暁東</t>
   </si>
 </sst>
 </file>
@@ -5099,7 +5102,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5776,6 +5779,21 @@
     <xf numFmtId="0" fontId="73" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5815,16 +5833,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5860,24 +5881,7 @@
     <xf numFmtId="0" fontId="42" fillId="11" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="ハイパーリンク 2" xfId="8" xr:uid="{D149D991-5776-4CD5-AAF4-AEFD62EAA993}"/>
@@ -7891,9 +7895,9 @@
       <definedName name="BS入力"/>
       <definedName name="PL入力"/>
       <definedName name="コメント入力"/>
+      <definedName name="売上入力"/>
       <definedName name="人員入力"/>
       <definedName name="総表印刷"/>
-      <definedName name="売上入力"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -8756,173 +8760,173 @@
   </cols>
   <sheetData>
     <row r="12" spans="2:8">
-      <c r="B12" s="262" t="s">
+      <c r="B12" s="267" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="263"/>
-      <c r="D12" s="262" t="s">
+      <c r="C12" s="268"/>
+      <c r="D12" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="263"/>
-      <c r="F12" s="262" t="s">
+      <c r="E12" s="268"/>
+      <c r="F12" s="267" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="264"/>
-      <c r="H12" s="263"/>
+      <c r="G12" s="269"/>
+      <c r="H12" s="268"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="270" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="266"/>
-      <c r="D13" s="267" t="s">
+      <c r="C13" s="271"/>
+      <c r="D13" s="272" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="267"/>
-      <c r="F13" s="268" t="s">
+      <c r="E13" s="272"/>
+      <c r="F13" s="273" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="268"/>
-      <c r="H13" s="268"/>
+      <c r="G13" s="273"/>
+      <c r="H13" s="273"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="262" t="s">
+      <c r="B16" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="263"/>
-      <c r="D16" s="265" t="s">
+      <c r="C16" s="268"/>
+      <c r="D16" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="269"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="266"/>
+      <c r="E16" s="274"/>
+      <c r="F16" s="274"/>
+      <c r="G16" s="274"/>
+      <c r="H16" s="271"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="262" t="s">
+      <c r="B17" s="267" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="263"/>
-      <c r="D17" s="265"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="266"/>
+      <c r="C17" s="268"/>
+      <c r="D17" s="270"/>
+      <c r="E17" s="274"/>
+      <c r="F17" s="274"/>
+      <c r="G17" s="274"/>
+      <c r="H17" s="271"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="262" t="s">
+      <c r="B18" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="263"/>
-      <c r="D18" s="270"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="271"/>
-      <c r="G18" s="271"/>
-      <c r="H18" s="272"/>
+      <c r="C18" s="268"/>
+      <c r="D18" s="275"/>
+      <c r="E18" s="276"/>
+      <c r="F18" s="276"/>
+      <c r="G18" s="276"/>
+      <c r="H18" s="277"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="262" t="s">
+      <c r="B20" s="267" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="264"/>
-      <c r="D20" s="264"/>
-      <c r="E20" s="264"/>
-      <c r="F20" s="264"/>
-      <c r="G20" s="264"/>
-      <c r="H20" s="263"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="269"/>
+      <c r="E20" s="269"/>
+      <c r="F20" s="269"/>
+      <c r="G20" s="269"/>
+      <c r="H20" s="268"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="2"/>
-      <c r="C21" s="273" t="s">
+      <c r="C21" s="278" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="274"/>
-      <c r="E21" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="274"/>
-      <c r="G21" s="273" t="s">
+      <c r="D21" s="279"/>
+      <c r="E21" s="278" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="279"/>
+      <c r="G21" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="274"/>
+      <c r="H21" s="279"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="277" t="s">
-        <v>775</v>
-      </c>
-      <c r="D22" s="277"/>
-      <c r="E22" s="275"/>
-      <c r="F22" s="275"/>
-      <c r="G22" s="275"/>
-      <c r="H22" s="275"/>
+      <c r="C22" s="280" t="s">
+        <v>774</v>
+      </c>
+      <c r="D22" s="280"/>
+      <c r="E22" s="281"/>
+      <c r="F22" s="281"/>
+      <c r="G22" s="281"/>
+      <c r="H22" s="281"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="276">
+      <c r="C23" s="282">
         <v>45947</v>
       </c>
-      <c r="D23" s="277"/>
-      <c r="E23" s="278"/>
-      <c r="F23" s="275"/>
-      <c r="G23" s="278"/>
-      <c r="H23" s="275"/>
+      <c r="D23" s="280"/>
+      <c r="E23" s="283"/>
+      <c r="F23" s="281"/>
+      <c r="G23" s="283"/>
+      <c r="H23" s="281"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="262" t="s">
+      <c r="B25" s="267" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="264"/>
-      <c r="D25" s="264"/>
-      <c r="E25" s="264"/>
-      <c r="F25" s="264"/>
-      <c r="G25" s="264"/>
-      <c r="H25" s="263"/>
+      <c r="C25" s="269"/>
+      <c r="D25" s="269"/>
+      <c r="E25" s="269"/>
+      <c r="F25" s="269"/>
+      <c r="G25" s="269"/>
+      <c r="H25" s="268"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="2"/>
-      <c r="C26" s="273" t="s">
+      <c r="C26" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="274"/>
-      <c r="E26" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="274"/>
-      <c r="G26" s="273" t="s">
+      <c r="D26" s="279"/>
+      <c r="E26" s="278" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="279"/>
+      <c r="G26" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="274"/>
+      <c r="H26" s="279"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="290" t="s">
-        <v>772</v>
-      </c>
-      <c r="D27" s="277"/>
-      <c r="E27" s="275"/>
-      <c r="F27" s="275"/>
-      <c r="G27" s="275"/>
-      <c r="H27" s="275"/>
+      <c r="C27" s="284" t="s">
+        <v>771</v>
+      </c>
+      <c r="D27" s="280"/>
+      <c r="E27" s="281"/>
+      <c r="F27" s="281"/>
+      <c r="G27" s="281"/>
+      <c r="H27" s="281"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="276">
+      <c r="C28" s="282">
         <v>45958</v>
       </c>
-      <c r="D28" s="277"/>
-      <c r="E28" s="278"/>
-      <c r="F28" s="275"/>
-      <c r="G28" s="278"/>
-      <c r="H28" s="275"/>
+      <c r="D28" s="280"/>
+      <c r="E28" s="283"/>
+      <c r="F28" s="281"/>
+      <c r="G28" s="283"/>
+      <c r="H28" s="281"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -8972,7 +8976,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.453125" defaultRowHeight="15"/>
   <cols>
@@ -9028,14 +9034,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="260">
-        <v>45958</v>
-      </c>
-      <c r="D3" s="291" t="s">
-        <v>772</v>
+        <v>45947</v>
+      </c>
+      <c r="D3" s="262" t="s">
+        <v>784</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="8" t="s">
-        <v>770</v>
+      <c r="F3" s="296" t="s">
+        <v>783</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
@@ -9460,14 +9466,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1">
-      <c r="B2" s="279" t="s">
+      <c r="B2" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="280" t="s">
-        <v>771</v>
-      </c>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
+      <c r="C2" s="286" t="s">
+        <v>770</v>
+      </c>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
       <c r="F2" s="11" t="s">
         <v>28</v>
       </c>
@@ -9475,10 +9481,10 @@
         <f>COUNTIF(G6:G445,"*")</f>
         <v>63</v>
       </c>
-      <c r="H2" s="282" t="s">
+      <c r="H2" s="288" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="282"/>
+      <c r="I2" s="288"/>
       <c r="J2" s="12">
         <f>COUNTIF(L6:L445,"*")</f>
         <v>63</v>
@@ -9499,10 +9505,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="B3" s="279"/>
-      <c r="C3" s="281"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="281"/>
+      <c r="B3" s="285"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="287"/>
+      <c r="E3" s="287"/>
       <c r="F3" s="13" t="s">
         <v>32</v>
       </c>
@@ -9510,10 +9516,10 @@
         <f>J2/G2</f>
         <v>1</v>
       </c>
-      <c r="H3" s="282" t="s">
+      <c r="H3" s="288" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="282"/>
+      <c r="I3" s="288"/>
       <c r="J3" s="16">
         <f>IF(J2=0,0,N2/J2)</f>
         <v>1</v>
@@ -9625,7 +9631,7 @@
         <v>666</v>
       </c>
       <c r="K7" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L7" s="21" t="s">
         <v>666</v>
@@ -9661,7 +9667,7 @@
         <v>666</v>
       </c>
       <c r="K8" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L8" s="21" t="s">
         <v>666</v>
@@ -9699,7 +9705,7 @@
         <v>666</v>
       </c>
       <c r="K9" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L9" s="21" t="s">
         <v>666</v>
@@ -9735,7 +9741,7 @@
         <v>666</v>
       </c>
       <c r="K10" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>666</v>
@@ -9773,7 +9779,7 @@
         <v>666</v>
       </c>
       <c r="K11" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L11" s="21" t="s">
         <v>666</v>
@@ -9809,7 +9815,7 @@
         <v>666</v>
       </c>
       <c r="K12" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L12" s="21" t="s">
         <v>666</v>
@@ -9867,7 +9873,7 @@
         <v>666</v>
       </c>
       <c r="K14" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L14" s="21" t="s">
         <v>666</v>
@@ -9903,7 +9909,7 @@
         <v>666</v>
       </c>
       <c r="K15" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L15" s="21" t="s">
         <v>666</v>
@@ -9941,7 +9947,7 @@
         <v>666</v>
       </c>
       <c r="K16" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L16" s="21" t="s">
         <v>666</v>
@@ -9977,7 +9983,7 @@
         <v>666</v>
       </c>
       <c r="K17" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L17" s="21" t="s">
         <v>666</v>
@@ -10013,7 +10019,7 @@
         <v>666</v>
       </c>
       <c r="K18" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L18" s="21" t="s">
         <v>666</v>
@@ -10049,7 +10055,7 @@
         <v>666</v>
       </c>
       <c r="K19" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L19" s="21" t="s">
         <v>666</v>
@@ -10085,7 +10091,7 @@
         <v>666</v>
       </c>
       <c r="K20" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L20" s="21" t="s">
         <v>666</v>
@@ -10121,7 +10127,7 @@
         <v>666</v>
       </c>
       <c r="K21" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L21" s="21" t="s">
         <v>666</v>
@@ -10159,7 +10165,7 @@
         <v>666</v>
       </c>
       <c r="K22" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L22" s="21" t="s">
         <v>666</v>
@@ -10195,7 +10201,7 @@
         <v>666</v>
       </c>
       <c r="K23" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L23" s="249" t="s">
         <v>666</v>
@@ -10233,7 +10239,7 @@
         <v>666</v>
       </c>
       <c r="K24" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L24" s="21" t="s">
         <v>666</v>
@@ -10269,7 +10275,7 @@
         <v>666</v>
       </c>
       <c r="K25" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L25" s="21" t="s">
         <v>666</v>
@@ -10307,7 +10313,7 @@
         <v>666</v>
       </c>
       <c r="K26" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L26" s="21" t="s">
         <v>666</v>
@@ -10343,7 +10349,7 @@
         <v>666</v>
       </c>
       <c r="K27" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L27" s="21" t="s">
         <v>666</v>
@@ -10381,7 +10387,7 @@
         <v>666</v>
       </c>
       <c r="K28" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L28" s="21" t="s">
         <v>666</v>
@@ -10417,7 +10423,7 @@
         <v>666</v>
       </c>
       <c r="K29" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L29" s="21" t="s">
         <v>666</v>
@@ -10475,7 +10481,7 @@
         <v>666</v>
       </c>
       <c r="K31" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L31" s="21" t="s">
         <v>666</v>
@@ -10511,7 +10517,7 @@
         <v>666</v>
       </c>
       <c r="K32" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L32" s="21" t="s">
         <v>666</v>
@@ -10549,7 +10555,7 @@
         <v>666</v>
       </c>
       <c r="K33" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L33" s="21" t="s">
         <v>666</v>
@@ -10585,7 +10591,7 @@
         <v>666</v>
       </c>
       <c r="K34" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L34" s="21" t="s">
         <v>666</v>
@@ -10623,7 +10629,7 @@
         <v>666</v>
       </c>
       <c r="K35" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L35" s="21" t="s">
         <v>666</v>
@@ -10659,7 +10665,7 @@
         <v>666</v>
       </c>
       <c r="K36" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L36" s="21" t="s">
         <v>666</v>
@@ -10699,7 +10705,7 @@
         <v>666</v>
       </c>
       <c r="K37" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L37" s="21" t="s">
         <v>666</v>
@@ -10735,7 +10741,7 @@
         <v>666</v>
       </c>
       <c r="K38" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L38" s="21" t="s">
         <v>666</v>
@@ -10771,7 +10777,7 @@
         <v>666</v>
       </c>
       <c r="K39" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L39" s="21" t="s">
         <v>666</v>
@@ -10807,7 +10813,7 @@
         <v>666</v>
       </c>
       <c r="K40" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L40" s="21" t="s">
         <v>666</v>
@@ -10843,7 +10849,7 @@
         <v>666</v>
       </c>
       <c r="K41" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L41" s="21" t="s">
         <v>666</v>
@@ -10879,7 +10885,7 @@
         <v>666</v>
       </c>
       <c r="K42" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L42" s="21" t="s">
         <v>666</v>
@@ -10919,7 +10925,7 @@
         <v>666</v>
       </c>
       <c r="K43" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L43" s="21" t="s">
         <v>666</v>
@@ -10955,7 +10961,7 @@
         <v>666</v>
       </c>
       <c r="K44" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L44" s="21" t="s">
         <v>666</v>
@@ -10995,7 +11001,7 @@
         <v>666</v>
       </c>
       <c r="K45" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L45" s="21" t="s">
         <v>666</v>
@@ -11031,7 +11037,7 @@
         <v>666</v>
       </c>
       <c r="K46" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L46" s="21" t="s">
         <v>666</v>
@@ -11067,7 +11073,7 @@
         <v>666</v>
       </c>
       <c r="K47" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L47" s="21" t="s">
         <v>666</v>
@@ -11103,7 +11109,7 @@
         <v>666</v>
       </c>
       <c r="K48" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L48" s="21" t="s">
         <v>666</v>
@@ -11143,7 +11149,7 @@
         <v>666</v>
       </c>
       <c r="K49" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L49" s="21" t="s">
         <v>666</v>
@@ -11179,7 +11185,7 @@
         <v>666</v>
       </c>
       <c r="K50" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L50" s="21" t="s">
         <v>666</v>
@@ -11215,7 +11221,7 @@
         <v>666</v>
       </c>
       <c r="K51" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L51" s="21" t="s">
         <v>666</v>
@@ -11251,7 +11257,7 @@
         <v>666</v>
       </c>
       <c r="K52" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L52" s="21" t="s">
         <v>666</v>
@@ -11291,7 +11297,7 @@
         <v>666</v>
       </c>
       <c r="K53" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L53" s="21" t="s">
         <v>666</v>
@@ -11327,7 +11333,7 @@
         <v>666</v>
       </c>
       <c r="K54" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L54" s="21" t="s">
         <v>666</v>
@@ -11367,7 +11373,7 @@
         <v>666</v>
       </c>
       <c r="K55" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L55" s="21" t="s">
         <v>666</v>
@@ -11403,7 +11409,7 @@
         <v>666</v>
       </c>
       <c r="K56" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L56" s="21" t="s">
         <v>666</v>
@@ -11439,7 +11445,7 @@
         <v>666</v>
       </c>
       <c r="K57" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L57" s="21" t="s">
         <v>666</v>
@@ -11475,7 +11481,7 @@
         <v>666</v>
       </c>
       <c r="K58" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L58" s="21" t="s">
         <v>666</v>
@@ -11533,7 +11539,7 @@
         <v>666</v>
       </c>
       <c r="K60" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L60" s="21" t="s">
         <v>666</v>
@@ -11569,7 +11575,7 @@
         <v>666</v>
       </c>
       <c r="K61" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L61" s="21" t="s">
         <v>666</v>
@@ -11605,7 +11611,7 @@
         <v>666</v>
       </c>
       <c r="K62" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L62" s="21" t="s">
         <v>666</v>
@@ -11663,7 +11669,7 @@
         <v>666</v>
       </c>
       <c r="K64" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L64" s="21" t="s">
         <v>666</v>
@@ -11701,7 +11707,7 @@
         <v>666</v>
       </c>
       <c r="K65" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L65" s="21" t="s">
         <v>666</v>
@@ -11739,7 +11745,7 @@
         <v>666</v>
       </c>
       <c r="K66" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L66" s="21" t="s">
         <v>666</v>
@@ -11776,7 +11782,7 @@
         <v>666</v>
       </c>
       <c r="K67" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L67" s="21" t="s">
         <v>666</v>
@@ -11814,7 +11820,7 @@
         <v>666</v>
       </c>
       <c r="K68" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L68" s="21" t="s">
         <v>666</v>
@@ -11854,7 +11860,7 @@
         <v>666</v>
       </c>
       <c r="K69" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L69" s="21" t="s">
         <v>666</v>
@@ -11892,7 +11898,7 @@
         <v>666</v>
       </c>
       <c r="K70" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L70" s="21" t="s">
         <v>666</v>
@@ -11930,7 +11936,7 @@
         <v>666</v>
       </c>
       <c r="K71" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L71" s="21" t="s">
         <v>666</v>
@@ -11968,7 +11974,7 @@
         <v>666</v>
       </c>
       <c r="K72" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L72" s="21" t="s">
         <v>666</v>
@@ -12006,7 +12012,7 @@
         <v>666</v>
       </c>
       <c r="K73" s="261" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L73" s="21" t="s">
         <v>666</v>
@@ -14445,18 +14451,18 @@
     </row>
     <row r="2" spans="1:41" s="52" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="51"/>
-      <c r="B2" s="289" t="s">
+      <c r="B2" s="295" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
     </row>
     <row r="3" spans="1:41" s="52" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
       <c r="A3" s="53"/>
@@ -14590,11 +14596,11 @@
       <c r="AO11" s="70"/>
     </row>
     <row r="12" spans="1:41" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="283" t="s">
+      <c r="A12" s="289" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="283"/>
-      <c r="C12" s="284"/>
+      <c r="B12" s="289"/>
+      <c r="C12" s="290"/>
       <c r="E12" s="119"/>
       <c r="F12" s="118" t="s">
         <v>141</v>
@@ -15490,11 +15496,11 @@
       <c r="AP26" s="104"/>
     </row>
     <row r="27" spans="1:42" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="283" t="s">
+      <c r="A27" s="289" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="283"/>
-      <c r="C27" s="284"/>
+      <c r="B27" s="289"/>
+      <c r="C27" s="290"/>
       <c r="D27" s="118"/>
       <c r="E27" s="174"/>
       <c r="F27" s="118"/>
@@ -16790,24 +16796,24 @@
     <row r="47" spans="1:59" ht="20" customHeight="1">
       <c r="B47" s="66"/>
       <c r="C47" s="67"/>
-      <c r="D47" s="285" t="s">
+      <c r="D47" s="291" t="s">
         <v>472</v>
       </c>
-      <c r="E47" s="286"/>
-      <c r="F47" s="286"/>
-      <c r="G47" s="286"/>
-      <c r="H47" s="286"/>
-      <c r="I47" s="286"/>
-      <c r="J47" s="286"/>
-      <c r="K47" s="286"/>
-      <c r="L47" s="286"/>
-      <c r="M47" s="286"/>
-      <c r="N47" s="286"/>
-      <c r="O47" s="286"/>
-      <c r="P47" s="286"/>
-      <c r="Q47" s="286"/>
-      <c r="R47" s="286"/>
-      <c r="S47" s="286"/>
+      <c r="E47" s="292"/>
+      <c r="F47" s="292"/>
+      <c r="G47" s="292"/>
+      <c r="H47" s="292"/>
+      <c r="I47" s="292"/>
+      <c r="J47" s="292"/>
+      <c r="K47" s="292"/>
+      <c r="L47" s="292"/>
+      <c r="M47" s="292"/>
+      <c r="N47" s="292"/>
+      <c r="O47" s="292"/>
+      <c r="P47" s="292"/>
+      <c r="Q47" s="292"/>
+      <c r="R47" s="292"/>
+      <c r="S47" s="292"/>
       <c r="T47" s="93"/>
       <c r="U47" s="93"/>
       <c r="V47" s="93"/>
@@ -16850,11 +16856,11 @@
       <c r="BG47" s="95"/>
     </row>
     <row r="48" spans="1:59" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="283" t="s">
+      <c r="A48" s="289" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="283"/>
-      <c r="C48" s="284"/>
+      <c r="B48" s="289"/>
+      <c r="C48" s="290"/>
       <c r="D48" s="140"/>
       <c r="E48" s="140"/>
       <c r="F48" s="140"/>
@@ -18298,11 +18304,11 @@
       <c r="AP59" s="104"/>
     </row>
     <row r="60" spans="1:59" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A60" s="283" t="s">
+      <c r="A60" s="289" t="s">
         <v>140</v>
       </c>
-      <c r="B60" s="283"/>
-      <c r="C60" s="284"/>
+      <c r="B60" s="289"/>
+      <c r="C60" s="290"/>
       <c r="D60" s="118"/>
       <c r="E60" s="118" t="s">
         <v>141</v>
@@ -19003,11 +19009,11 @@
       <c r="AP71" s="104"/>
     </row>
     <row r="72" spans="1:42" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A72" s="283" t="s">
+      <c r="A72" s="289" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="283"/>
-      <c r="C72" s="284"/>
+      <c r="B72" s="289"/>
+      <c r="C72" s="290"/>
       <c r="D72" s="118"/>
       <c r="E72" s="174"/>
       <c r="F72" s="118" t="s">
@@ -19688,7 +19694,7 @@
       <c r="AP81" s="172"/>
     </row>
     <row r="82" spans="1:42" ht="13.5" customHeight="1">
-      <c r="B82" s="292" t="s">
+      <c r="B82" s="263" t="s">
         <v>149</v>
       </c>
       <c r="C82" s="86" t="s">
@@ -19840,30 +19846,30 @@
     <row r="85" spans="1:42" ht="19.5" customHeight="1">
       <c r="B85" s="66"/>
       <c r="C85" s="67"/>
-      <c r="D85" s="285" t="s">
+      <c r="D85" s="291" t="s">
         <v>242</v>
       </c>
-      <c r="E85" s="286"/>
-      <c r="F85" s="286"/>
-      <c r="G85" s="287"/>
-      <c r="H85" s="287"/>
-      <c r="I85" s="287"/>
-      <c r="J85" s="287"/>
-      <c r="K85" s="287"/>
-      <c r="L85" s="287"/>
-      <c r="M85" s="287"/>
-      <c r="N85" s="287"/>
-      <c r="O85" s="287"/>
-      <c r="P85" s="287"/>
-      <c r="Q85" s="287"/>
-      <c r="R85" s="287"/>
-      <c r="S85" s="287"/>
-      <c r="T85" s="287"/>
-      <c r="U85" s="287"/>
-      <c r="V85" s="287"/>
-      <c r="W85" s="287"/>
-      <c r="X85" s="287"/>
-      <c r="Y85" s="288"/>
+      <c r="E85" s="292"/>
+      <c r="F85" s="292"/>
+      <c r="G85" s="293"/>
+      <c r="H85" s="293"/>
+      <c r="I85" s="293"/>
+      <c r="J85" s="293"/>
+      <c r="K85" s="293"/>
+      <c r="L85" s="293"/>
+      <c r="M85" s="293"/>
+      <c r="N85" s="293"/>
+      <c r="O85" s="293"/>
+      <c r="P85" s="293"/>
+      <c r="Q85" s="293"/>
+      <c r="R85" s="293"/>
+      <c r="S85" s="293"/>
+      <c r="T85" s="293"/>
+      <c r="U85" s="293"/>
+      <c r="V85" s="293"/>
+      <c r="W85" s="293"/>
+      <c r="X85" s="293"/>
+      <c r="Y85" s="294"/>
       <c r="Z85" s="68"/>
       <c r="AA85" s="68"/>
       <c r="AB85" s="68"/>
@@ -19881,11 +19887,11 @@
       <c r="AO85" s="70"/>
     </row>
     <row r="86" spans="1:42" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A86" s="283" t="s">
+      <c r="A86" s="289" t="s">
         <v>140</v>
       </c>
-      <c r="B86" s="283"/>
-      <c r="C86" s="284"/>
+      <c r="B86" s="289"/>
+      <c r="C86" s="290"/>
       <c r="D86" s="140"/>
       <c r="E86" s="140"/>
       <c r="F86" s="140"/>
@@ -21480,19 +21486,19 @@
     </row>
     <row r="11" spans="1:13" s="44" customFormat="1" ht="13.5">
       <c r="B11" s="36"/>
-      <c r="C11" s="293" t="s">
+      <c r="C11" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="293" t="s">
+      <c r="D11" s="264" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="293" t="s">
+      <c r="E11" s="264" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="293" t="s">
+      <c r="F11" s="264" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="293" t="s">
+      <c r="G11" s="264" t="s">
         <v>169</v>
       </c>
       <c r="H11" s="112"/>
@@ -21504,19 +21510,19 @@
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" ht="13.5">
       <c r="B12" s="36"/>
-      <c r="C12" s="293">
+      <c r="C12" s="264">
         <v>-2</v>
       </c>
-      <c r="D12" s="293" t="s">
+      <c r="D12" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="293" t="s">
+      <c r="E12" s="264" t="s">
         <v>692</v>
       </c>
-      <c r="F12" s="293" t="s">
+      <c r="F12" s="264" t="s">
         <v>170</v>
       </c>
-      <c r="G12" s="293" t="s">
+      <c r="G12" s="264" t="s">
         <v>437</v>
       </c>
       <c r="H12" s="112"/>
@@ -21622,19 +21628,19 @@
     </row>
     <row r="19" spans="2:13" s="44" customFormat="1" ht="13.5">
       <c r="B19" s="36"/>
-      <c r="C19" s="293" t="s">
+      <c r="C19" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="293" t="s">
+      <c r="D19" s="264" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="293" t="s">
+      <c r="E19" s="264" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="293" t="s">
+      <c r="F19" s="264" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="293" t="s">
+      <c r="G19" s="264" t="s">
         <v>169</v>
       </c>
       <c r="H19" s="37"/>
@@ -21646,19 +21652,19 @@
     </row>
     <row r="20" spans="2:13" s="44" customFormat="1" ht="13.5">
       <c r="B20" s="36"/>
-      <c r="C20" s="294">
+      <c r="C20" s="265">
         <v>-2</v>
       </c>
-      <c r="D20" s="293" t="s">
+      <c r="D20" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="293" t="s">
+      <c r="E20" s="264" t="s">
         <v>675</v>
       </c>
-      <c r="F20" s="293" t="s">
+      <c r="F20" s="264" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="293" t="s">
+      <c r="G20" s="264" t="s">
         <v>437</v>
       </c>
       <c r="H20" s="37"/>
@@ -21796,19 +21802,19 @@
     </row>
     <row r="29" spans="2:13" s="44" customFormat="1" ht="13.5">
       <c r="B29" s="36"/>
-      <c r="C29" s="293" t="s">
+      <c r="C29" s="264" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="293" t="s">
+      <c r="D29" s="264" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="293" t="s">
+      <c r="E29" s="264" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="293" t="s">
+      <c r="F29" s="264" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="293" t="s">
+      <c r="G29" s="264" t="s">
         <v>184</v>
       </c>
       <c r="H29" s="37"/>
@@ -21820,19 +21826,19 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="45"/>
-      <c r="C30" s="294">
+      <c r="C30" s="265">
         <v>-2</v>
       </c>
-      <c r="D30" s="293" t="s">
+      <c r="D30" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="293" t="s">
+      <c r="E30" s="264" t="s">
         <v>694</v>
       </c>
-      <c r="F30" s="293" t="s">
+      <c r="F30" s="264" t="s">
         <v>676</v>
       </c>
-      <c r="G30" s="293" t="s">
+      <c r="G30" s="264" t="s">
         <v>437</v>
       </c>
       <c r="H30" s="110"/>
@@ -21938,19 +21944,19 @@
     </row>
     <row r="37" spans="2:13" s="44" customFormat="1" ht="13.5">
       <c r="B37" s="36"/>
-      <c r="C37" s="293" t="s">
+      <c r="C37" s="264" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="293" t="s">
+      <c r="D37" s="264" t="s">
         <v>181</v>
       </c>
-      <c r="E37" s="293" t="s">
+      <c r="E37" s="264" t="s">
         <v>182</v>
       </c>
-      <c r="F37" s="293" t="s">
+      <c r="F37" s="264" t="s">
         <v>183</v>
       </c>
-      <c r="G37" s="293" t="s">
+      <c r="G37" s="264" t="s">
         <v>184</v>
       </c>
       <c r="H37" s="103"/>
@@ -21962,19 +21968,19 @@
     </row>
     <row r="38" spans="2:13" s="44" customFormat="1" ht="13.5">
       <c r="B38" s="36"/>
-      <c r="C38" s="294">
+      <c r="C38" s="265">
         <v>-2</v>
       </c>
-      <c r="D38" s="293" t="s">
+      <c r="D38" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="293" t="s">
+      <c r="E38" s="264" t="s">
         <v>694</v>
       </c>
-      <c r="F38" s="293" t="s">
+      <c r="F38" s="264" t="s">
         <v>676</v>
       </c>
-      <c r="G38" s="293" t="s">
+      <c r="G38" s="264" t="s">
         <v>437</v>
       </c>
       <c r="H38" s="103"/>
@@ -22112,19 +22118,19 @@
     </row>
     <row r="47" spans="2:13" s="44" customFormat="1" ht="13.5">
       <c r="B47" s="36"/>
-      <c r="C47" s="293" t="s">
+      <c r="C47" s="264" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="293" t="s">
+      <c r="D47" s="264" t="s">
         <v>181</v>
       </c>
-      <c r="E47" s="293" t="s">
+      <c r="E47" s="264" t="s">
         <v>182</v>
       </c>
-      <c r="F47" s="293" t="s">
+      <c r="F47" s="264" t="s">
         <v>183</v>
       </c>
-      <c r="G47" s="293" t="s">
+      <c r="G47" s="264" t="s">
         <v>184</v>
       </c>
       <c r="H47" s="103"/>
@@ -22136,19 +22142,19 @@
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="45"/>
-      <c r="C48" s="294">
+      <c r="C48" s="265">
         <v>-2</v>
       </c>
-      <c r="D48" s="293" t="s">
+      <c r="D48" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="293" t="s">
+      <c r="E48" s="264" t="s">
         <v>696</v>
       </c>
-      <c r="F48" s="293" t="s">
+      <c r="F48" s="264" t="s">
         <v>677</v>
       </c>
-      <c r="G48" s="293" t="s">
+      <c r="G48" s="264" t="s">
         <v>437</v>
       </c>
       <c r="H48" s="110"/>
@@ -22254,19 +22260,19 @@
     </row>
     <row r="55" spans="2:13">
       <c r="B55" s="45"/>
-      <c r="C55" s="293" t="s">
+      <c r="C55" s="264" t="s">
         <v>180</v>
       </c>
-      <c r="D55" s="293" t="s">
+      <c r="D55" s="264" t="s">
         <v>181</v>
       </c>
-      <c r="E55" s="293" t="s">
+      <c r="E55" s="264" t="s">
         <v>182</v>
       </c>
-      <c r="F55" s="293" t="s">
+      <c r="F55" s="264" t="s">
         <v>183</v>
       </c>
-      <c r="G55" s="293" t="s">
+      <c r="G55" s="264" t="s">
         <v>184</v>
       </c>
       <c r="H55" s="110"/>
@@ -22278,19 +22284,19 @@
     </row>
     <row r="56" spans="2:13">
       <c r="B56" s="39"/>
-      <c r="C56" s="294">
+      <c r="C56" s="265">
         <v>-2</v>
       </c>
-      <c r="D56" s="293" t="s">
+      <c r="D56" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="293" t="s">
+      <c r="E56" s="264" t="s">
         <v>696</v>
       </c>
-      <c r="F56" s="293" t="s">
+      <c r="F56" s="264" t="s">
         <v>677</v>
       </c>
-      <c r="G56" s="293" t="s">
+      <c r="G56" s="264" t="s">
         <v>437</v>
       </c>
       <c r="H56" s="103"/>
@@ -22371,9 +22377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D525AB5-A7A8-49E9-A284-D646BB7BEE42}">
   <dimension ref="A1:BK921"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F786" sqref="F786"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
@@ -28446,19 +28450,19 @@
     </row>
     <row r="96" spans="2:59" ht="14">
       <c r="B96" s="148"/>
-      <c r="C96" s="295" t="s">
+      <c r="C96" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D96" s="295" t="s">
+      <c r="D96" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E96" s="295" t="s">
+      <c r="E96" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F96" s="295" t="s">
+      <c r="F96" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G96" s="295" t="s">
+      <c r="G96" s="266" t="s">
         <v>404</v>
       </c>
       <c r="I96" s="107"/>
@@ -28472,13 +28476,13 @@
     </row>
     <row r="97" spans="2:58" ht="14">
       <c r="B97" s="148"/>
-      <c r="C97" s="295">
-        <v>0</v>
-      </c>
-      <c r="D97" s="295"/>
-      <c r="E97" s="295"/>
-      <c r="F97" s="295"/>
-      <c r="G97" s="295"/>
+      <c r="C97" s="266">
+        <v>0</v>
+      </c>
+      <c r="D97" s="266"/>
+      <c r="E97" s="266"/>
+      <c r="F97" s="266"/>
+      <c r="G97" s="266"/>
       <c r="I97" s="107"/>
       <c r="J97" s="107"/>
       <c r="K97" s="107"/>
@@ -29117,38 +29121,38 @@
     </row>
     <row r="116" spans="2:58" ht="13.5">
       <c r="B116" s="148"/>
-      <c r="C116" s="295" t="s">
+      <c r="C116" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D116" s="295" t="s">
+      <c r="D116" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E116" s="295" t="s">
+      <c r="E116" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F116" s="295" t="s">
+      <c r="F116" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G116" s="295" t="s">
+      <c r="G116" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF116" s="130"/>
     </row>
     <row r="117" spans="2:58" ht="13.5">
       <c r="B117" s="148"/>
-      <c r="C117" s="295">
+      <c r="C117" s="266">
         <v>-2</v>
       </c>
-      <c r="D117" s="295" t="s">
+      <c r="D117" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="E117" s="295" t="s">
+      <c r="E117" s="266" t="s">
         <v>698</v>
       </c>
-      <c r="F117" s="295" t="s">
+      <c r="F117" s="266" t="s">
         <v>436</v>
       </c>
-      <c r="G117" s="295" t="s">
+      <c r="G117" s="266" t="s">
         <v>437</v>
       </c>
       <c r="BF117" s="130"/>
@@ -30124,38 +30128,38 @@
     </row>
     <row r="148" spans="2:58" ht="13.5">
       <c r="B148" s="148"/>
-      <c r="C148" s="295" t="s">
+      <c r="C148" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D148" s="295" t="s">
+      <c r="D148" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E148" s="295" t="s">
+      <c r="E148" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F148" s="295" t="s">
+      <c r="F148" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G148" s="295" t="s">
+      <c r="G148" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF148" s="130"/>
     </row>
     <row r="149" spans="2:58" ht="13.5">
       <c r="B149" s="148"/>
-      <c r="C149" s="295">
+      <c r="C149" s="266">
         <v>-2</v>
       </c>
-      <c r="D149" s="295" t="s">
+      <c r="D149" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="E149" s="295" t="s">
+      <c r="E149" s="266" t="s">
         <v>700</v>
       </c>
-      <c r="F149" s="295" t="s">
+      <c r="F149" s="266" t="s">
         <v>681</v>
       </c>
-      <c r="G149" s="295" t="s">
+      <c r="G149" s="266" t="s">
         <v>437</v>
       </c>
       <c r="BF149" s="130"/>
@@ -31122,38 +31126,38 @@
     </row>
     <row r="179" spans="2:58" ht="13.5">
       <c r="B179" s="148"/>
-      <c r="C179" s="295" t="s">
+      <c r="C179" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D179" s="295" t="s">
+      <c r="D179" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E179" s="295" t="s">
+      <c r="E179" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F179" s="295" t="s">
+      <c r="F179" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G179" s="295" t="s">
+      <c r="G179" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF179" s="130"/>
     </row>
     <row r="180" spans="2:58" ht="13.5">
       <c r="B180" s="148"/>
-      <c r="C180" s="295">
+      <c r="C180" s="266">
         <v>-2</v>
       </c>
-      <c r="D180" s="295" t="s">
+      <c r="D180" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="E180" s="295" t="s">
+      <c r="E180" s="266" t="s">
         <v>700</v>
       </c>
-      <c r="F180" s="295" t="s">
+      <c r="F180" s="266" t="s">
         <v>681</v>
       </c>
-      <c r="G180" s="295" t="s">
+      <c r="G180" s="266" t="s">
         <v>437</v>
       </c>
       <c r="BF180" s="130"/>
@@ -32124,38 +32128,38 @@
     </row>
     <row r="210" spans="2:58" ht="13.5">
       <c r="B210" s="148"/>
-      <c r="C210" s="295" t="s">
+      <c r="C210" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D210" s="295" t="s">
+      <c r="D210" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E210" s="295" t="s">
+      <c r="E210" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F210" s="295" t="s">
+      <c r="F210" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G210" s="295" t="s">
+      <c r="G210" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF210" s="130"/>
     </row>
     <row r="211" spans="2:58" ht="13.5">
       <c r="B211" s="148"/>
-      <c r="C211" s="295">
+      <c r="C211" s="266">
         <v>-2</v>
       </c>
-      <c r="D211" s="295" t="s">
+      <c r="D211" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="E211" s="295" t="s">
+      <c r="E211" s="266" t="s">
         <v>700</v>
       </c>
-      <c r="F211" s="295" t="s">
+      <c r="F211" s="266" t="s">
         <v>681</v>
       </c>
-      <c r="G211" s="295" t="s">
+      <c r="G211" s="266" t="s">
         <v>437</v>
       </c>
       <c r="BF211" s="130"/>
@@ -33636,38 +33640,38 @@
     </row>
     <row r="230" spans="2:59" ht="13.5">
       <c r="B230" s="148"/>
-      <c r="C230" s="295" t="s">
+      <c r="C230" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D230" s="295" t="s">
+      <c r="D230" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E230" s="295" t="s">
+      <c r="E230" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F230" s="295" t="s">
+      <c r="F230" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G230" s="295" t="s">
+      <c r="G230" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF230" s="130"/>
     </row>
     <row r="231" spans="2:59" ht="13.5">
       <c r="B231" s="148"/>
-      <c r="C231" s="295">
+      <c r="C231" s="266">
         <v>-2</v>
       </c>
-      <c r="D231" s="295" t="s">
+      <c r="D231" s="266" t="s">
         <v>405</v>
       </c>
-      <c r="E231" s="295" t="s">
+      <c r="E231" s="266" t="s">
         <v>740</v>
       </c>
-      <c r="F231" s="295" t="s">
+      <c r="F231" s="266" t="s">
         <v>741</v>
       </c>
-      <c r="G231" s="295" t="s">
+      <c r="G231" s="266" t="s">
         <v>113</v>
       </c>
       <c r="BF231" s="130"/>
@@ -34540,38 +34544,38 @@
     </row>
     <row r="250" spans="2:59" ht="13.5">
       <c r="B250" s="148"/>
-      <c r="C250" s="295" t="s">
+      <c r="C250" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D250" s="295" t="s">
+      <c r="D250" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E250" s="295" t="s">
+      <c r="E250" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F250" s="295" t="s">
+      <c r="F250" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G250" s="295" t="s">
+      <c r="G250" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF250" s="130"/>
     </row>
     <row r="251" spans="2:59" ht="13.5">
       <c r="B251" s="148"/>
-      <c r="C251" s="295">
+      <c r="C251" s="266">
         <v>-2</v>
       </c>
-      <c r="D251" s="295" t="s">
+      <c r="D251" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="E251" s="295" t="s">
+      <c r="E251" s="266" t="s">
         <v>702</v>
       </c>
-      <c r="F251" s="295" t="s">
+      <c r="F251" s="266" t="s">
         <v>686</v>
       </c>
-      <c r="G251" s="295" t="s">
+      <c r="G251" s="266" t="s">
         <v>437</v>
       </c>
       <c r="BF251" s="130"/>
@@ -35518,38 +35522,38 @@
     </row>
     <row r="271" spans="2:59" ht="13.5">
       <c r="B271" s="148"/>
-      <c r="C271" s="295" t="s">
+      <c r="C271" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D271" s="295" t="s">
+      <c r="D271" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E271" s="295" t="s">
+      <c r="E271" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F271" s="295" t="s">
+      <c r="F271" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G271" s="295" t="s">
+      <c r="G271" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF271" s="130"/>
     </row>
     <row r="272" spans="2:59" ht="13.5">
       <c r="B272" s="148"/>
-      <c r="C272" s="295">
+      <c r="C272" s="266">
         <v>-2</v>
       </c>
-      <c r="D272" s="295" t="s">
+      <c r="D272" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="E272" s="295" t="s">
+      <c r="E272" s="266" t="s">
         <v>704</v>
       </c>
-      <c r="F272" s="295" t="s">
+      <c r="F272" s="266" t="s">
         <v>678</v>
       </c>
-      <c r="G272" s="295" t="s">
+      <c r="G272" s="266" t="s">
         <v>437</v>
       </c>
       <c r="BF272" s="130"/>
@@ -35708,30 +35712,30 @@
     </row>
     <row r="280" spans="2:59" s="27" customFormat="1" ht="15">
       <c r="B280" s="98"/>
-      <c r="C280" s="285" t="s">
+      <c r="C280" s="291" t="s">
         <v>242</v>
       </c>
-      <c r="D280" s="286"/>
-      <c r="E280" s="286"/>
-      <c r="F280" s="287"/>
-      <c r="G280" s="287"/>
-      <c r="H280" s="287"/>
-      <c r="I280" s="287"/>
-      <c r="J280" s="287"/>
-      <c r="K280" s="287"/>
-      <c r="L280" s="287"/>
-      <c r="M280" s="287"/>
-      <c r="N280" s="287"/>
-      <c r="O280" s="287"/>
-      <c r="P280" s="287"/>
-      <c r="Q280" s="287"/>
-      <c r="R280" s="287"/>
-      <c r="S280" s="287"/>
-      <c r="T280" s="287"/>
-      <c r="U280" s="287"/>
-      <c r="V280" s="287"/>
-      <c r="W280" s="287"/>
-      <c r="X280" s="288"/>
+      <c r="D280" s="292"/>
+      <c r="E280" s="292"/>
+      <c r="F280" s="293"/>
+      <c r="G280" s="293"/>
+      <c r="H280" s="293"/>
+      <c r="I280" s="293"/>
+      <c r="J280" s="293"/>
+      <c r="K280" s="293"/>
+      <c r="L280" s="293"/>
+      <c r="M280" s="293"/>
+      <c r="N280" s="293"/>
+      <c r="O280" s="293"/>
+      <c r="P280" s="293"/>
+      <c r="Q280" s="293"/>
+      <c r="R280" s="293"/>
+      <c r="S280" s="293"/>
+      <c r="T280" s="293"/>
+      <c r="U280" s="293"/>
+      <c r="V280" s="293"/>
+      <c r="W280" s="293"/>
+      <c r="X280" s="294"/>
       <c r="Y280" s="68"/>
       <c r="Z280" s="68"/>
       <c r="AA280" s="68"/>
@@ -36396,38 +36400,38 @@
     </row>
     <row r="291" spans="2:58" ht="13.5">
       <c r="B291" s="148"/>
-      <c r="C291" s="295" t="s">
+      <c r="C291" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D291" s="295" t="s">
+      <c r="D291" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E291" s="295" t="s">
+      <c r="E291" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F291" s="295" t="s">
+      <c r="F291" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G291" s="295" t="s">
+      <c r="G291" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF291" s="130"/>
     </row>
     <row r="292" spans="2:58" ht="13.5">
       <c r="B292" s="148"/>
-      <c r="C292" s="295">
+      <c r="C292" s="266">
         <v>-2</v>
       </c>
-      <c r="D292" s="295" t="s">
+      <c r="D292" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="E292" s="295" t="s">
+      <c r="E292" s="266" t="s">
         <v>706</v>
       </c>
-      <c r="F292" s="295" t="s">
+      <c r="F292" s="266" t="s">
         <v>687</v>
       </c>
-      <c r="G292" s="295" t="s">
+      <c r="G292" s="266" t="s">
         <v>437</v>
       </c>
       <c r="BF292" s="130"/>
@@ -37357,38 +37361,38 @@
     </row>
     <row r="321" spans="2:58" ht="13.5">
       <c r="B321" s="148"/>
-      <c r="C321" s="295" t="s">
+      <c r="C321" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D321" s="295" t="s">
+      <c r="D321" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E321" s="295" t="s">
+      <c r="E321" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F321" s="295" t="s">
+      <c r="F321" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G321" s="295" t="s">
+      <c r="G321" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF321" s="130"/>
     </row>
     <row r="322" spans="2:58" ht="13.5">
       <c r="B322" s="148"/>
-      <c r="C322" s="295">
+      <c r="C322" s="266">
         <v>-2</v>
       </c>
-      <c r="D322" s="295" t="s">
+      <c r="D322" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="E322" s="295" t="s">
+      <c r="E322" s="266" t="s">
         <v>708</v>
       </c>
-      <c r="F322" s="295" t="s">
+      <c r="F322" s="266" t="s">
         <v>688</v>
       </c>
-      <c r="G322" s="295" t="s">
+      <c r="G322" s="266" t="s">
         <v>437</v>
       </c>
       <c r="BF322" s="130"/>
@@ -38355,38 +38359,38 @@
     </row>
     <row r="352" spans="2:58" ht="13.5">
       <c r="B352" s="148"/>
-      <c r="C352" s="295" t="s">
+      <c r="C352" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D352" s="295" t="s">
+      <c r="D352" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E352" s="295" t="s">
+      <c r="E352" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F352" s="295" t="s">
+      <c r="F352" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G352" s="295" t="s">
+      <c r="G352" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF352" s="130"/>
     </row>
     <row r="353" spans="1:59" ht="13.5">
       <c r="B353" s="148"/>
-      <c r="C353" s="295">
+      <c r="C353" s="266">
         <v>-2</v>
       </c>
-      <c r="D353" s="295" t="s">
+      <c r="D353" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="E353" s="295" t="s">
+      <c r="E353" s="266" t="s">
         <v>710</v>
       </c>
-      <c r="F353" s="295" t="s">
+      <c r="F353" s="266" t="s">
         <v>689</v>
       </c>
-      <c r="G353" s="295" t="s">
+      <c r="G353" s="266" t="s">
         <v>437</v>
       </c>
       <c r="BF353" s="130"/>
@@ -40221,38 +40225,38 @@
     </row>
     <row r="383" spans="2:59" ht="13.5">
       <c r="B383" s="148"/>
-      <c r="C383" s="295" t="s">
+      <c r="C383" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D383" s="295" t="s">
+      <c r="D383" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E383" s="295" t="s">
+      <c r="E383" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F383" s="295" t="s">
+      <c r="F383" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G383" s="295" t="s">
+      <c r="G383" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF383" s="130"/>
     </row>
     <row r="384" spans="2:59" ht="13.5">
       <c r="B384" s="148"/>
-      <c r="C384" s="295">
+      <c r="C384" s="266">
         <v>-2</v>
       </c>
-      <c r="D384" s="295" t="s">
+      <c r="D384" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="E384" s="295" t="s">
+      <c r="E384" s="266" t="s">
         <v>712</v>
       </c>
-      <c r="F384" s="295" t="s">
+      <c r="F384" s="266" t="s">
         <v>690</v>
       </c>
-      <c r="G384" s="295" t="s">
+      <c r="G384" s="266" t="s">
         <v>437</v>
       </c>
       <c r="BF384" s="130"/>
@@ -42091,38 +42095,38 @@
     </row>
     <row r="414" spans="2:58" ht="13.5">
       <c r="B414" s="148"/>
-      <c r="C414" s="295" t="s">
+      <c r="C414" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D414" s="295" t="s">
+      <c r="D414" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E414" s="295" t="s">
+      <c r="E414" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F414" s="295" t="s">
+      <c r="F414" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G414" s="295" t="s">
+      <c r="G414" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF414" s="130"/>
     </row>
     <row r="415" spans="2:58" ht="13.5">
       <c r="B415" s="148"/>
-      <c r="C415" s="295">
+      <c r="C415" s="266">
         <v>-2</v>
       </c>
-      <c r="D415" s="295" t="s">
+      <c r="D415" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="E415" s="295" t="s">
+      <c r="E415" s="266" t="s">
         <v>714</v>
       </c>
-      <c r="F415" s="295" t="s">
+      <c r="F415" s="266" t="s">
         <v>587</v>
       </c>
-      <c r="G415" s="295" t="s">
+      <c r="G415" s="266" t="s">
         <v>437</v>
       </c>
       <c r="BF415" s="130"/>
@@ -43957,32 +43961,32 @@
     </row>
     <row r="445" spans="2:58" ht="13.5">
       <c r="B445" s="148"/>
-      <c r="C445" s="295" t="s">
+      <c r="C445" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D445" s="295" t="s">
+      <c r="D445" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E445" s="295" t="s">
+      <c r="E445" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F445" s="295" t="s">
+      <c r="F445" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G445" s="295" t="s">
+      <c r="G445" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF445" s="130"/>
     </row>
     <row r="446" spans="2:58" ht="13.5">
       <c r="B446" s="148"/>
-      <c r="C446" s="295">
-        <v>0</v>
-      </c>
-      <c r="D446" s="295"/>
-      <c r="E446" s="295"/>
-      <c r="F446" s="295"/>
-      <c r="G446" s="295"/>
+      <c r="C446" s="266">
+        <v>0</v>
+      </c>
+      <c r="D446" s="266"/>
+      <c r="E446" s="266"/>
+      <c r="F446" s="266"/>
+      <c r="G446" s="266"/>
       <c r="BF446" s="130"/>
     </row>
     <row r="447" spans="2:58" ht="13.5" thickBot="1">
@@ -45815,38 +45819,38 @@
     </row>
     <row r="476" spans="2:58" ht="13.5">
       <c r="B476" s="148"/>
-      <c r="C476" s="295" t="s">
+      <c r="C476" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D476" s="295" t="s">
+      <c r="D476" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E476" s="295" t="s">
+      <c r="E476" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F476" s="295" t="s">
+      <c r="F476" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G476" s="295" t="s">
+      <c r="G476" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF476" s="130"/>
     </row>
     <row r="477" spans="2:58" ht="13.5">
       <c r="B477" s="148"/>
-      <c r="C477" s="295">
+      <c r="C477" s="266">
         <v>-2</v>
       </c>
-      <c r="D477" s="295" t="s">
+      <c r="D477" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="E477" s="295" t="s">
+      <c r="E477" s="266" t="s">
         <v>714</v>
       </c>
-      <c r="F477" s="295" t="s">
+      <c r="F477" s="266" t="s">
         <v>587</v>
       </c>
-      <c r="G477" s="295" t="s">
+      <c r="G477" s="266" t="s">
         <v>437</v>
       </c>
       <c r="BF477" s="130"/>
@@ -48644,32 +48648,32 @@
     </row>
     <row r="522" spans="2:63" ht="13.5">
       <c r="B522" s="148"/>
-      <c r="C522" s="295" t="s">
+      <c r="C522" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D522" s="295" t="s">
+      <c r="D522" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E522" s="295" t="s">
+      <c r="E522" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F522" s="295" t="s">
+      <c r="F522" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G522" s="295" t="s">
+      <c r="G522" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF522" s="130"/>
     </row>
     <row r="523" spans="2:63" ht="13.5">
       <c r="B523" s="148"/>
-      <c r="C523" s="295">
-        <v>0</v>
-      </c>
-      <c r="D523" s="295"/>
-      <c r="E523" s="295"/>
-      <c r="F523" s="295"/>
-      <c r="G523" s="295"/>
+      <c r="C523" s="266">
+        <v>0</v>
+      </c>
+      <c r="D523" s="266"/>
+      <c r="E523" s="266"/>
+      <c r="F523" s="266"/>
+      <c r="G523" s="266"/>
       <c r="BF523" s="130"/>
     </row>
     <row r="524" spans="2:63" ht="13.5" thickBot="1">
@@ -50510,38 +50514,38 @@
     </row>
     <row r="554" spans="2:58" ht="13.5">
       <c r="B554" s="148"/>
-      <c r="C554" s="295" t="s">
+      <c r="C554" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D554" s="295" t="s">
+      <c r="D554" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E554" s="295" t="s">
+      <c r="E554" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F554" s="295" t="s">
+      <c r="F554" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G554" s="295" t="s">
+      <c r="G554" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF554" s="130"/>
     </row>
     <row r="555" spans="2:58" ht="13.5">
       <c r="B555" s="148"/>
-      <c r="C555" s="295">
+      <c r="C555" s="266">
         <v>-2</v>
       </c>
-      <c r="D555" s="295" t="s">
+      <c r="D555" s="266" t="s">
         <v>405</v>
       </c>
-      <c r="E555" s="295" t="s">
+      <c r="E555" s="266" t="s">
         <v>714</v>
       </c>
-      <c r="F555" s="295" t="s">
-        <v>776</v>
-      </c>
-      <c r="G555" s="295" t="s">
+      <c r="F555" s="266" t="s">
+        <v>775</v>
+      </c>
+      <c r="G555" s="266" t="s">
         <v>113</v>
       </c>
       <c r="BF555" s="130"/>
@@ -52314,38 +52318,38 @@
     </row>
     <row r="584" spans="2:58" ht="13.5">
       <c r="B584" s="148"/>
-      <c r="C584" s="295" t="s">
+      <c r="C584" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D584" s="295" t="s">
+      <c r="D584" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E584" s="295" t="s">
+      <c r="E584" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F584" s="295" t="s">
+      <c r="F584" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G584" s="295" t="s">
+      <c r="G584" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF584" s="130"/>
     </row>
     <row r="585" spans="2:58" ht="13.5">
       <c r="B585" s="148"/>
-      <c r="C585" s="295">
+      <c r="C585" s="266">
         <v>-2</v>
       </c>
-      <c r="D585" s="295" t="s">
+      <c r="D585" s="266" t="s">
         <v>405</v>
       </c>
-      <c r="E585" s="295" t="s">
+      <c r="E585" s="266" t="s">
         <v>716</v>
       </c>
-      <c r="F585" s="295" t="s">
-        <v>777</v>
-      </c>
-      <c r="G585" s="295" t="s">
+      <c r="F585" s="266" t="s">
+        <v>776</v>
+      </c>
+      <c r="G585" s="266" t="s">
         <v>113</v>
       </c>
       <c r="BF585" s="130"/>
@@ -54474,38 +54478,38 @@
     </row>
     <row r="624" spans="2:63" ht="13.5">
       <c r="B624" s="148"/>
-      <c r="C624" s="295" t="s">
+      <c r="C624" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D624" s="295" t="s">
+      <c r="D624" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E624" s="295" t="s">
+      <c r="E624" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F624" s="295" t="s">
+      <c r="F624" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G624" s="295" t="s">
+      <c r="G624" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF624" s="130"/>
     </row>
     <row r="625" spans="2:59" ht="13.5">
       <c r="B625" s="148"/>
-      <c r="C625" s="295">
+      <c r="C625" s="266">
         <v>-2</v>
       </c>
-      <c r="D625" s="295" t="s">
+      <c r="D625" s="266" t="s">
         <v>405</v>
       </c>
-      <c r="E625" s="295" t="s">
+      <c r="E625" s="266" t="s">
         <v>718</v>
       </c>
-      <c r="F625" s="295" t="s">
-        <v>778</v>
-      </c>
-      <c r="G625" s="295" t="s">
+      <c r="F625" s="266" t="s">
+        <v>777</v>
+      </c>
+      <c r="G625" s="266" t="s">
         <v>113</v>
       </c>
       <c r="BF625" s="130"/>
@@ -56099,32 +56103,32 @@
     </row>
     <row r="654" spans="2:63" ht="13.5">
       <c r="B654" s="148"/>
-      <c r="C654" s="295" t="s">
+      <c r="C654" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D654" s="295" t="s">
+      <c r="D654" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E654" s="295" t="s">
+      <c r="E654" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F654" s="295" t="s">
+      <c r="F654" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G654" s="295" t="s">
+      <c r="G654" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF654" s="130"/>
     </row>
     <row r="655" spans="2:63" ht="13.5">
       <c r="B655" s="148"/>
-      <c r="C655" s="295">
-        <v>0</v>
-      </c>
-      <c r="D655" s="295"/>
-      <c r="E655" s="295"/>
-      <c r="F655" s="295"/>
-      <c r="G655" s="295"/>
+      <c r="C655" s="266">
+        <v>0</v>
+      </c>
+      <c r="D655" s="266"/>
+      <c r="E655" s="266"/>
+      <c r="F655" s="266"/>
+      <c r="G655" s="266"/>
       <c r="BF655" s="130"/>
     </row>
     <row r="656" spans="2:63" ht="13.5" thickBot="1">
@@ -57717,38 +57721,38 @@
     </row>
     <row r="684" spans="2:63" ht="13.5">
       <c r="B684" s="148"/>
-      <c r="C684" s="295" t="s">
+      <c r="C684" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D684" s="295" t="s">
+      <c r="D684" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E684" s="295" t="s">
+      <c r="E684" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F684" s="295" t="s">
+      <c r="F684" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G684" s="295" t="s">
+      <c r="G684" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF684" s="130"/>
     </row>
     <row r="685" spans="2:63" ht="13.5">
       <c r="B685" s="148"/>
-      <c r="C685" s="295">
+      <c r="C685" s="266">
         <v>-2</v>
       </c>
-      <c r="D685" s="295" t="s">
+      <c r="D685" s="266" t="s">
         <v>405</v>
       </c>
-      <c r="E685" s="295" t="s">
+      <c r="E685" s="266" t="s">
         <v>718</v>
       </c>
-      <c r="F685" s="295" t="s">
-        <v>778</v>
-      </c>
-      <c r="G685" s="295" t="s">
+      <c r="F685" s="266" t="s">
+        <v>777</v>
+      </c>
+      <c r="G685" s="266" t="s">
         <v>113</v>
       </c>
       <c r="BF685" s="130"/>
@@ -57918,38 +57922,38 @@
     </row>
     <row r="695" spans="2:58" ht="13.5">
       <c r="B695" s="148"/>
-      <c r="C695" s="295" t="s">
+      <c r="C695" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D695" s="295" t="s">
+      <c r="D695" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E695" s="295" t="s">
+      <c r="E695" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F695" s="295" t="s">
+      <c r="F695" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G695" s="295" t="s">
+      <c r="G695" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF695" s="130"/>
     </row>
     <row r="696" spans="2:58" ht="13.5">
       <c r="B696" s="148"/>
-      <c r="C696" s="295">
+      <c r="C696" s="266">
         <v>-2</v>
       </c>
-      <c r="D696" s="295" t="s">
+      <c r="D696" s="266" t="s">
         <v>405</v>
       </c>
-      <c r="E696" s="295" t="s">
+      <c r="E696" s="266" t="s">
         <v>721</v>
       </c>
-      <c r="F696" s="295" t="s">
-        <v>779</v>
-      </c>
-      <c r="G696" s="295" t="s">
+      <c r="F696" s="266" t="s">
+        <v>778</v>
+      </c>
+      <c r="G696" s="266" t="s">
         <v>113</v>
       </c>
       <c r="BF696" s="130"/>
@@ -58124,38 +58128,38 @@
     </row>
     <row r="706" spans="2:58" ht="13.5">
       <c r="B706" s="148"/>
-      <c r="C706" s="295" t="s">
+      <c r="C706" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D706" s="295" t="s">
+      <c r="D706" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E706" s="295" t="s">
+      <c r="E706" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F706" s="295" t="s">
+      <c r="F706" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G706" s="295" t="s">
+      <c r="G706" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF706" s="130"/>
     </row>
     <row r="707" spans="2:58" ht="13.5">
       <c r="B707" s="148"/>
-      <c r="C707" s="295">
+      <c r="C707" s="266">
         <v>-2</v>
       </c>
-      <c r="D707" s="295" t="s">
+      <c r="D707" s="266" t="s">
         <v>405</v>
       </c>
-      <c r="E707" s="295" t="s">
+      <c r="E707" s="266" t="s">
         <v>721</v>
       </c>
-      <c r="F707" s="295" t="s">
-        <v>779</v>
-      </c>
-      <c r="G707" s="295" t="s">
+      <c r="F707" s="266" t="s">
+        <v>778</v>
+      </c>
+      <c r="G707" s="266" t="s">
         <v>113</v>
       </c>
       <c r="BF707" s="130"/>
@@ -58325,38 +58329,38 @@
     </row>
     <row r="717" spans="2:58" ht="13.5">
       <c r="B717" s="148"/>
-      <c r="C717" s="295" t="s">
+      <c r="C717" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D717" s="295" t="s">
+      <c r="D717" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E717" s="295" t="s">
+      <c r="E717" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F717" s="295" t="s">
+      <c r="F717" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G717" s="295" t="s">
+      <c r="G717" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF717" s="130"/>
     </row>
     <row r="718" spans="2:58" ht="13.5">
       <c r="B718" s="148"/>
-      <c r="C718" s="295">
+      <c r="C718" s="266">
         <v>-2</v>
       </c>
-      <c r="D718" s="295" t="s">
+      <c r="D718" s="266" t="s">
         <v>405</v>
       </c>
-      <c r="E718" s="295" t="s">
+      <c r="E718" s="266" t="s">
         <v>723</v>
       </c>
-      <c r="F718" s="295" t="s">
-        <v>780</v>
-      </c>
-      <c r="G718" s="295" t="s">
+      <c r="F718" s="266" t="s">
+        <v>779</v>
+      </c>
+      <c r="G718" s="266" t="s">
         <v>113</v>
       </c>
       <c r="BF718" s="130"/>
@@ -58544,38 +58548,38 @@
     </row>
     <row r="727" spans="2:58" ht="13.5">
       <c r="B727" s="148"/>
-      <c r="C727" s="295" t="s">
+      <c r="C727" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D727" s="295" t="s">
+      <c r="D727" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E727" s="295" t="s">
+      <c r="E727" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F727" s="295" t="s">
+      <c r="F727" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G727" s="295" t="s">
+      <c r="G727" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF727" s="130"/>
     </row>
     <row r="728" spans="2:58" ht="13.5">
       <c r="B728" s="148"/>
-      <c r="C728" s="295">
+      <c r="C728" s="266">
         <v>-2</v>
       </c>
-      <c r="D728" s="295" t="s">
+      <c r="D728" s="266" t="s">
         <v>405</v>
       </c>
-      <c r="E728" s="295" t="s">
+      <c r="E728" s="266" t="s">
         <v>725</v>
       </c>
-      <c r="F728" s="295" t="s">
-        <v>781</v>
-      </c>
-      <c r="G728" s="295" t="s">
+      <c r="F728" s="266" t="s">
+        <v>780</v>
+      </c>
+      <c r="G728" s="266" t="s">
         <v>113</v>
       </c>
       <c r="BF728" s="130"/>
@@ -58741,38 +58745,38 @@
     </row>
     <row r="737" spans="2:58" ht="13.5">
       <c r="B737" s="148"/>
-      <c r="C737" s="295" t="s">
+      <c r="C737" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D737" s="295" t="s">
+      <c r="D737" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E737" s="295" t="s">
+      <c r="E737" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F737" s="295" t="s">
+      <c r="F737" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G737" s="295" t="s">
+      <c r="G737" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF737" s="130"/>
     </row>
     <row r="738" spans="2:58" ht="13.5">
       <c r="B738" s="148"/>
-      <c r="C738" s="295">
+      <c r="C738" s="266">
         <v>-2</v>
       </c>
-      <c r="D738" s="295" t="s">
+      <c r="D738" s="266" t="s">
         <v>405</v>
       </c>
-      <c r="E738" s="295" t="s">
+      <c r="E738" s="266" t="s">
         <v>727</v>
       </c>
-      <c r="F738" s="295" t="s">
-        <v>782</v>
-      </c>
-      <c r="G738" s="295" t="s">
+      <c r="F738" s="266" t="s">
+        <v>781</v>
+      </c>
+      <c r="G738" s="266" t="s">
         <v>113</v>
       </c>
       <c r="BF738" s="130"/>
@@ -58955,32 +58959,32 @@
     </row>
     <row r="747" spans="2:58" ht="13.5">
       <c r="B747" s="148"/>
-      <c r="C747" s="295" t="s">
+      <c r="C747" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D747" s="295" t="s">
+      <c r="D747" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E747" s="295" t="s">
+      <c r="E747" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F747" s="295" t="s">
+      <c r="F747" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G747" s="295" t="s">
+      <c r="G747" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF747" s="130"/>
     </row>
     <row r="748" spans="2:58" ht="13.5">
       <c r="B748" s="148"/>
-      <c r="C748" s="295">
-        <v>0</v>
-      </c>
-      <c r="D748" s="295"/>
-      <c r="E748" s="295"/>
-      <c r="F748" s="295"/>
-      <c r="G748" s="295"/>
+      <c r="C748" s="266">
+        <v>0</v>
+      </c>
+      <c r="D748" s="266"/>
+      <c r="E748" s="266"/>
+      <c r="F748" s="266"/>
+      <c r="G748" s="266"/>
       <c r="BF748" s="130"/>
     </row>
     <row r="749" spans="2:58" ht="13.5" thickBot="1">
@@ -59161,38 +59165,38 @@
     </row>
     <row r="757" spans="2:58" ht="13.5">
       <c r="B757" s="148"/>
-      <c r="C757" s="295" t="s">
+      <c r="C757" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D757" s="295" t="s">
+      <c r="D757" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E757" s="295" t="s">
+      <c r="E757" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F757" s="295" t="s">
+      <c r="F757" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G757" s="295" t="s">
+      <c r="G757" s="266" t="s">
         <v>404</v>
       </c>
       <c r="BF757" s="130"/>
     </row>
     <row r="758" spans="2:58" ht="13.5">
       <c r="B758" s="148"/>
-      <c r="C758" s="295">
+      <c r="C758" s="266">
         <v>-2</v>
       </c>
-      <c r="D758" s="295" t="s">
+      <c r="D758" s="266" t="s">
         <v>405</v>
       </c>
-      <c r="E758" s="295" t="s">
+      <c r="E758" s="266" t="s">
         <v>727</v>
       </c>
-      <c r="F758" s="295" t="s">
-        <v>782</v>
-      </c>
-      <c r="G758" s="295" t="s">
+      <c r="F758" s="266" t="s">
+        <v>781</v>
+      </c>
+      <c r="G758" s="266" t="s">
         <v>113</v>
       </c>
       <c r="BF758" s="130"/>
@@ -59383,19 +59387,19 @@
     </row>
     <row r="767" spans="2:58" ht="13.5">
       <c r="B767" s="148"/>
-      <c r="C767" s="295" t="s">
+      <c r="C767" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D767" s="295" t="s">
+      <c r="D767" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E767" s="295" t="s">
+      <c r="E767" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F767" s="295" t="s">
+      <c r="F767" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G767" s="295" t="s">
+      <c r="G767" s="266" t="s">
         <v>404</v>
       </c>
       <c r="H767" s="136"/>
@@ -59416,19 +59420,19 @@
     </row>
     <row r="768" spans="2:58" ht="13.5">
       <c r="B768" s="148"/>
-      <c r="C768" s="295">
+      <c r="C768" s="266">
         <v>-2</v>
       </c>
-      <c r="D768" s="295" t="s">
+      <c r="D768" s="266" t="s">
         <v>405</v>
       </c>
-      <c r="E768" s="295" t="s">
+      <c r="E768" s="266" t="s">
         <v>727</v>
       </c>
-      <c r="F768" s="295" t="s">
-        <v>782</v>
-      </c>
-      <c r="G768" s="295" t="s">
+      <c r="F768" s="266" t="s">
+        <v>781</v>
+      </c>
+      <c r="G768" s="266" t="s">
         <v>113</v>
       </c>
       <c r="I768" s="136"/>
@@ -59721,19 +59725,19 @@
     </row>
     <row r="777" spans="2:58" ht="13.5">
       <c r="B777" s="148"/>
-      <c r="C777" s="295" t="s">
+      <c r="C777" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D777" s="295" t="s">
+      <c r="D777" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E777" s="295" t="s">
+      <c r="E777" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F777" s="295" t="s">
+      <c r="F777" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G777" s="295" t="s">
+      <c r="G777" s="266" t="s">
         <v>404</v>
       </c>
       <c r="H777" s="136"/>
@@ -59755,15 +59759,15 @@
     </row>
     <row r="778" spans="2:58" ht="13.5">
       <c r="B778" s="148"/>
-      <c r="C778" s="295">
+      <c r="C778" s="266">
         <v>-2</v>
       </c>
-      <c r="D778" s="295"/>
-      <c r="E778" s="295"/>
-      <c r="F778" s="295" t="s">
-        <v>774</v>
-      </c>
-      <c r="G778" s="295" t="s">
+      <c r="D778" s="266"/>
+      <c r="E778" s="266"/>
+      <c r="F778" s="266" t="s">
+        <v>773</v>
+      </c>
+      <c r="G778" s="266" t="s">
         <v>113</v>
       </c>
       <c r="I778" s="136" t="s">
@@ -60010,7 +60014,7 @@
     <row r="784" spans="2:58" ht="13.5">
       <c r="B784" s="148"/>
       <c r="C784" s="136" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D784" s="136"/>
       <c r="E784" s="136"/>
@@ -60082,19 +60086,19 @@
     </row>
     <row r="787" spans="2:58" ht="13.5">
       <c r="B787" s="148"/>
-      <c r="C787" s="295" t="s">
+      <c r="C787" s="266" t="s">
         <v>401</v>
       </c>
-      <c r="D787" s="295" t="s">
+      <c r="D787" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="E787" s="295" t="s">
+      <c r="E787" s="266" t="s">
         <v>131</v>
       </c>
-      <c r="F787" s="295" t="s">
+      <c r="F787" s="266" t="s">
         <v>403</v>
       </c>
-      <c r="G787" s="295" t="s">
+      <c r="G787" s="266" t="s">
         <v>404</v>
       </c>
       <c r="H787" s="136"/>
@@ -60116,15 +60120,15 @@
     </row>
     <row r="788" spans="2:58" ht="13.5">
       <c r="B788" s="148"/>
-      <c r="C788" s="295">
+      <c r="C788" s="266">
         <v>-2</v>
       </c>
-      <c r="D788" s="295"/>
-      <c r="E788" s="295"/>
-      <c r="F788" s="295" t="s">
-        <v>783</v>
-      </c>
-      <c r="G788" s="295" t="s">
+      <c r="D788" s="266"/>
+      <c r="E788" s="266"/>
+      <c r="F788" s="266" t="s">
+        <v>782</v>
+      </c>
+      <c r="G788" s="266" t="s">
         <v>113</v>
       </c>
       <c r="I788" s="136"/>
